--- a/exports/shorts/win-loss.xlsx
+++ b/exports/shorts/win-loss.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -476,77 +476,77 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Roman Ramirez</t>
+          <t>Kevin Lee</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Levin Lee</t>
+          <t>Roman Ramirez</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aaron Carter</t>
+          <t>Jason Jackson</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Kevin Cooper</t>
+          <t>Aaron Carter</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -558,30 +558,30 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coby Lovelace</t>
+          <t>Kevin Cooper</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Jason Jackson</t>
+          <t>Coby Lovelace</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
@@ -590,45 +590,45 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Will Simpson</t>
+          <t>Nathan Snow</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Leah Baetcke</t>
+          <t>Cason Duszak</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -638,127 +638,127 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Jack Massingill</t>
+          <t>Will Simpson</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Nathan Snow</t>
+          <t>Leah Baetcke</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Ann Hall</t>
+          <t>Jack Massingill</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Yvonne Nguyen</t>
+          <t>Eric LastName</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Carla Betancourt</t>
+          <t>Matthew Rusten</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cason Duszak</t>
+          <t>Ann Hall</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -767,125 +767,125 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Yvonne Nguyen</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Carla Betancourt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Reagan Fryatt</t>
+          <t>Luci Nguyen</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Kristian Banlaoi</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Piper Parker</t>
+          <t>Noah Dale</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Reagan Fryatt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -900,7 +900,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Kristian Banlaoi</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -913,36 +913,36 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Piper Parker</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Sam Carswell-Tellis</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -951,17 +951,17 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Alex LastName</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -970,44 +970,177 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Evan Sooklal</t>
+          <t>Julie Jackson</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>Carolyn LastName</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Brian Tafazoli</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Sam Tellis</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Cassie Deering</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Yafu LastName</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Kim LastName</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Evan Sooklal</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
         <v>8</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
